--- a/biology/Zoologie/Allosmaitia_strophius/Allosmaitia_strophius.xlsx
+++ b/biology/Zoologie/Allosmaitia_strophius/Allosmaitia_strophius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allosmaitia strophius est une espèce d'insectes lépidoptères de la famille des Lycaenidae, sous-famille des Theclinae et du genre Allosmaitia.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Allosmaitia strophius a été décrit par Jean-Baptiste Godart en 1824, sous le nom initial de Polyommatus strophius.
-Synonyme: Thecla scoteia Hewitson, 1877; Thecla pion Godman &amp; Salvin, 1887[1].
-Noms vernaculaires
-Allosmaitia strophius se nomme Strophius Hairstreak en anglais[2].
+Synonyme: Thecla scoteia Hewitson, 1877; Thecla pion Godman &amp; Salvin, 1887.
 </t>
         </is>
       </c>
@@ -542,14 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Allosmaitia strophius est un petit papillon d'une envergure de 22 mm à 32 mm, au corps bleu sur le dessus qui possède à chaque aile postérieure une très fine queue[3].
-Le dessus est marron clair avec une suffusion bleu métallisé sur la moitié à partir du bord interne des ailes antérieures et aux ailes postérieures en triangle central de la base au bord externe en laissant deux bandes marron clair le long du bord costal et du bord interne.
-Le revers est gris beige avec deux lignes de traits beige foncé doublées de blanc en limite de l'aire postdiscale, et, sur les ailes postérieures, un gros ocelle foncé en position anale, un ocelle bleu gris dans l'aire postmarginale en e2 et un ocelle rouge pupillé de noir en e3.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allosmaitia strophius se nomme Strophius Hairstreak en anglais.
 </t>
         </is>
       </c>
@@ -575,14 +591,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vole toute l'année en Amérique centrale[3].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Malpighia[3].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allosmaitia strophius est un petit papillon d'une envergure de 22 mm à 32 mm, au corps bleu sur le dessus qui possède à chaque aile postérieure une très fine queue.
+Le dessus est marron clair avec une suffusion bleu métallisé sur la moitié à partir du bord interne des ailes antérieures et aux ailes postérieures en triangle central de la base au bord externe en laissant deux bandes marron clair le long du bord costal et du bord interne.
+Le revers est gris beige avec deux lignes de traits beige foncé doublées de blanc en limite de l'aire postdiscale, et, sur les ailes postérieures, un gros ocelle foncé en position anale, un ocelle bleu gris dans l'aire postmarginale en e2 et un ocelle rouge pupillé de noir en e3.
 </t>
         </is>
       </c>
@@ -608,16 +626,158 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole toute l'année en Amérique centrale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Allosmaitia_strophius</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allosmaitia_strophius</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Malpighia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Allosmaitia_strophius</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allosmaitia_strophius</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allosmaitia strophius est présent dans l'extrême sud du Texas, au Mexique, au Guatemala, à Panama, en Équateur, au Brésil, au Surinam et en Guyane[1],[3],[4],[5].
-Biotope
-Allosmaitia strophius réside en forêt subtropicale sèche comme humide[3].
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allosmaitia strophius est présent dans l'extrême sud du Texas, au Mexique, au Guatemala, à Panama, en Équateur, au Brésil, au Surinam et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Allosmaitia_strophius</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allosmaitia_strophius</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allosmaitia strophius réside en forêt subtropicale sèche comme humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Allosmaitia_strophius</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allosmaitia_strophius</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Allosmaitia strophius, sur Wikimedia CommonsAllosmaitia strophius, sur Wikispecies
 </t>
